--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8137CDDC-66E5-2242-9AA7-944214727646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AB15B6E4-96A4-454C-B49D-F1F65B8A0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2400" windowWidth="23320" windowHeight="14380"/>
+    <workbookView xWindow="5480" yWindow="5080" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1109,11 +1109,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1174,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1198,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1206,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1214,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1222,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1230,7 +1230,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1238,7 +1238,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1246,7 +1246,7 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1254,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1262,7 +1262,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1278,7 +1278,7 @@
         <v>33</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1294,7 +1294,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1302,7 +1302,7 @@
         <v>51</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
         <v>52</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1318,7 +1318,7 @@
         <v>53</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1326,7 +1326,7 @@
         <v>55</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1334,7 +1334,7 @@
         <v>54</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1342,7 +1342,7 @@
         <v>56</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1350,7 +1350,7 @@
         <v>58</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
         <v>57</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1366,7 +1366,7 @@
         <v>59</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1374,7 +1374,7 @@
         <v>61</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
         <v>60</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1390,7 +1390,7 @@
         <v>62</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1398,7 +1398,7 @@
         <v>63</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1406,7 +1406,7 @@
         <v>69</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1414,7 +1414,7 @@
         <v>70</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>71</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
         <v>72</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
         <v>73</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
         <v>74</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1454,7 +1454,7 @@
         <v>75</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1462,7 +1462,7 @@
         <v>77</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1470,7 +1470,7 @@
         <v>76</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1478,7 +1478,7 @@
         <v>68</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1486,7 +1486,7 @@
         <v>67</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1494,7 +1494,7 @@
         <v>66</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>65</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1510,7 +1510,7 @@
         <v>64</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1518,7 +1518,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1526,7 +1526,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>48</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1542,7 +1542,7 @@
         <v>47</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1550,7 +1550,7 @@
         <v>46</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1558,7 +1558,7 @@
         <v>45</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1566,7 +1566,7 @@
         <v>44</v>
       </c>
       <c r="B56">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1582,7 +1582,7 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1590,7 +1590,7 @@
         <v>41</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="B60">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1606,7 +1606,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1614,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>38</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1630,7 +1630,7 @@
         <v>28</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1638,7 +1638,7 @@
         <v>27</v>
       </c>
       <c r="B65">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1646,7 +1646,7 @@
         <v>26</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1654,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>24</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,7 +1670,7 @@
         <v>23</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1678,7 +1678,7 @@
         <v>22</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1686,7 +1686,7 @@
         <v>21</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1694,7 +1694,7 @@
         <v>19</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1702,7 +1702,7 @@
         <v>20</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>18</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1718,7 +1718,7 @@
         <v>16</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1726,7 +1726,7 @@
         <v>17</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1734,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AB15B6E4-96A4-454C-B49D-F1F65B8A0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8992739A-B68D-174E-B976-0042E02517D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="5080" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="2400" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1302,7 +1302,7 @@
         <v>51</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8992739A-B68D-174E-B976-0042E02517D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F9B9F639-F4C4-AF40-8259-2CB042497309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2400" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16760" yWindow="1000" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="78" uniqueCount="78">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="79" uniqueCount="79">
   <si>
     <t>file_name</t>
   </si>
@@ -146,9 +146,6 @@
     <t>020-statistisches-testen-06.Rnw</t>
   </si>
   <si>
-    <t>030-ttest-01_c.Rnw</t>
-  </si>
-  <si>
     <t>100-multcomp-02.Rnw</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>062-regression-04_c.Rnw</t>
   </si>
   <si>
-    <t>030-ttest-02_c.Rnw</t>
-  </si>
-  <si>
     <t>031-ttest-R-01_c.Rnw</t>
   </si>
   <si>
@@ -270,6 +264,15 @@
   </si>
   <si>
     <t>060-2-regression-02_c.Rnw</t>
+  </si>
+  <si>
+    <t>030-ttest-calc-1</t>
+  </si>
+  <si>
+    <t>030-ttest-calc-2</t>
+  </si>
+  <si>
+    <t>030-ttest-calc-3</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1291,7 +1294,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -1299,31 +1302,31 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1331,7 +1334,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -1339,7 +1342,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -1347,47 +1350,47 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -1395,103 +1398,103 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -1499,26 +1502,26 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1526,7 +1529,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1534,7 +1537,7 @@
         <v>48</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1542,7 +1545,7 @@
         <v>47</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1558,7 +1561,7 @@
         <v>45</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1574,7 +1577,7 @@
         <v>43</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1582,7 +1585,7 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1590,7 +1593,7 @@
         <v>41</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1598,7 +1601,7 @@
         <v>40</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1606,28 +1609,28 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -1635,7 +1638,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -1643,47 +1646,47 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1691,23 +1694,23 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B74">
         <v>10</v>
@@ -1715,7 +1718,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -1723,7 +1726,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -1731,9 +1734,17 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>15</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>10</v>
       </c>
     </row>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F9B9F639-F4C4-AF40-8259-2CB042497309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{61829815-8EC1-B446-83A4-E058CCA89CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16760" yWindow="1000" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="1000" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="79" uniqueCount="79">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="80" uniqueCount="80">
   <si>
     <t>file_name</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>030-ttest-calc-3</t>
+  </si>
+  <si>
+    <t>102-math-10.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1748,6 +1751,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{61829815-8EC1-B446-83A4-E058CCA89CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D5B58E0F-CC46-3241-A17A-F495FBBAC55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="1000" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="80" uniqueCount="80">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
   <si>
     <t>file_name</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>102-math-10.Rnw</t>
+  </si>
+  <si>
+    <t>102-math-11.Rnw</t>
+  </si>
+  <si>
+    <t>102-math-12.Rnw</t>
+  </si>
+  <si>
+    <t>102-math-13.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1116,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1748,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1756,6 +1765,30 @@
         <v>79</v>
       </c>
       <c r="B79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
         <v>10</v>
       </c>
     </row>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D5B58E0F-CC46-3241-A17A-F495FBBAC55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{91F64054-16CA-B64E-B1B8-5F3BF0A2006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="1000" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="85" uniqueCount="85">
   <si>
     <t>file_name</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>102-math-13.Rnw</t>
+  </si>
+  <si>
+    <t>102-math-14.Rnw</t>
+  </si>
+  <si>
+    <t>102-math-15.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1792,6 +1798,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{91F64054-16CA-B64E-B1B8-5F3BF0A2006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0639F13B-A396-5944-A9D2-D38C73F34981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="1000" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="85" uniqueCount="85">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="87">
   <si>
     <t>file_name</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>102-math-15.Rnw</t>
+  </si>
+  <si>
+    <t>102-math-16.Rnw</t>
+  </si>
+  <si>
+    <t>102-math-17.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1814,6 +1820,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0639F13B-A396-5944-A9D2-D38C73F34981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A1183C6-F7CA-B845-BEE8-05E13AA068A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="1000" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1233,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A1183C6-F7CA-B845-BEE8-05E13AA068A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{22F6BC8F-E4B5-3E43-B7F5-61D6811B9E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="1000" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,33 +83,6 @@
     <t>014-mosaicplot-01_c.Rnw</t>
   </si>
   <si>
-    <t>102-math-09.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-07.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-08.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-06.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-04.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-05.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-03.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-02.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-01.Rnw</t>
-  </si>
-  <si>
     <t>101-R-programming-05.Rnw</t>
   </si>
   <si>
@@ -266,37 +239,64 @@
     <t>060-2-regression-02_c.Rnw</t>
   </si>
   <si>
-    <t>030-ttest-calc-1</t>
-  </si>
-  <si>
-    <t>030-ttest-calc-2</t>
-  </si>
-  <si>
-    <t>030-ttest-calc-3</t>
-  </si>
-  <si>
-    <t>102-math-10.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-11.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-12.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-13.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-14.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-15.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-16.Rnw</t>
-  </si>
-  <si>
-    <t>102-math-17.Rnw</t>
+    <t>math-01.Rnw</t>
+  </si>
+  <si>
+    <t>math-02.Rnw</t>
+  </si>
+  <si>
+    <t>math-03.Rnw</t>
+  </si>
+  <si>
+    <t>math-04.Rnw</t>
+  </si>
+  <si>
+    <t>math-05.Rnw</t>
+  </si>
+  <si>
+    <t>math-06.Rnw</t>
+  </si>
+  <si>
+    <t>math-07.Rnw</t>
+  </si>
+  <si>
+    <t>math-08.Rnw</t>
+  </si>
+  <si>
+    <t>math-09.Rnw</t>
+  </si>
+  <si>
+    <t>math-10.Rnw</t>
+  </si>
+  <si>
+    <t>math-11.Rnw</t>
+  </si>
+  <si>
+    <t>math-12.Rnw</t>
+  </si>
+  <si>
+    <t>math-13.Rnw</t>
+  </si>
+  <si>
+    <t>math-14.Rnw</t>
+  </si>
+  <si>
+    <t>math-15.Rnw</t>
+  </si>
+  <si>
+    <t>math-16.Rnw</t>
+  </si>
+  <si>
+    <t>math-17.Rnw</t>
+  </si>
+  <si>
+    <t>030-ttest-calc-3.Rnw</t>
+  </si>
+  <si>
+    <t>030-ttest-calc-2.Rnw</t>
+  </si>
+  <si>
+    <t>030-ttest-calc-1.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>13</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>9</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B33">
         <v>12</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>11</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>12</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>9</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B53">
         <v>12</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B55">
         <v>9</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>10</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>11</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B63">
         <v>9</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B69">
         <v>9</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>12</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>10</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B77">
         <v>10</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B78">
         <v>12</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B79">
         <v>10</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B81">
         <v>10</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B82">
         <v>10</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B84">
         <v>10</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B85">
         <v>10</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B86">
         <v>10</v>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{22F6BC8F-E4B5-3E43-B7F5-61D6811B9E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3A33027E-3A18-4E67-87B8-F2CE76937AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="1000" windowWidth="23320" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -827,7 +827,18 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1139,16 +1150,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +1175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1172,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1180,23 +1191,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +1231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1236,7 +1247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1268,7 +1279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1276,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1284,7 +1295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1292,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1308,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1316,7 +1327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -1324,7 +1335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1332,7 +1343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1340,7 +1351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1348,7 +1359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1356,7 +1367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1364,7 +1375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1372,7 +1383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1380,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1388,7 +1399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1396,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1404,7 +1415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1412,7 +1423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1420,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1428,7 +1439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1436,7 +1447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -1444,7 +1455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1452,7 +1463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1460,7 +1471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -1468,7 +1479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -1476,7 +1487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -1484,7 +1495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1492,7 +1503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1500,7 +1511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -1508,7 +1519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1516,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1524,7 +1535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1532,7 +1543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1540,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1548,7 +1559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1556,7 +1567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1564,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -1572,7 +1583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -1580,7 +1591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -1588,7 +1599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -1596,7 +1607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -1604,7 +1615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1612,7 +1623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -1620,7 +1631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -1628,7 +1639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -1636,7 +1647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -1644,7 +1655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -1652,7 +1663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -1660,7 +1671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -1668,7 +1679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -1676,7 +1687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -1684,7 +1695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1692,7 +1703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -1700,7 +1711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -1708,7 +1719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -1716,7 +1727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -1724,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -1732,7 +1743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -1740,7 +1751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -1748,7 +1759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -1756,7 +1767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -1764,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -1772,7 +1783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -1780,7 +1791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -1788,7 +1799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -1796,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -1804,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -1812,7 +1823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -1820,7 +1831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -1828,7 +1839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -1837,6 +1848,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B86">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
 </file>
--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3A33027E-3A18-4E67-87B8-F2CE76937AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A7C2DA15-8056-47DB-B70D-7A7B7A952C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11688" yWindow="4224" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1516,7 +1516,7 @@
         <v>65</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A7C2DA15-8056-47DB-B70D-7A7B7A952C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{30F40E35-5AE6-40C6-A631-88C52D67FA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11688" yWindow="4224" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="2748" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1204,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{30F40E35-5AE6-40C6-A631-88C52D67FA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B13BEB12-7387-4D42-96C4-5C2E4EE44365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="2748" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11088" yWindow="7236" windowWidth="17280" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1316,7 +1316,7 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B13BEB12-7387-4D42-96C4-5C2E4EE44365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{44ADDB13-1B25-42A8-8BA7-C21E2895B47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11088" yWindow="7236" windowWidth="17280" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="2604" windowWidth="22908" windowHeight="13068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1372,7 +1372,7 @@
         <v>44</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{44ADDB13-1B25-42A8-8BA7-C21E2895B47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{27C44E6D-C0E5-45DB-B916-986AF569F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="2604" windowWidth="22908" windowHeight="13068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21912" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1428,7 +1428,7 @@
         <v>49</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{27C44E6D-C0E5-45DB-B916-986AF569F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5DABF24B-AB60-4885-AF5A-1C26BE88FA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21912" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4188" yWindow="888" windowWidth="17760" windowHeight="13656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1150,16 +1150,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1511,15 +1511,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>65</v>
       </c>
       <c r="B45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5DABF24B-AB60-4885-AF5A-1C26BE88FA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{76FB24AC-3948-4735-B662-243BF4DEC557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="888" windowWidth="17760" windowHeight="13656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20064" yWindow="3540" windowWidth="19512" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="87">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="90" uniqueCount="90">
   <si>
     <t>file_name</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>030-ttest-calc-1.Rnw</t>
+  </si>
+  <si>
+    <t>tier-01.Rnw</t>
+  </si>
+  <si>
+    <t>tier-02.Rnw</t>
+  </si>
+  <si>
+    <t>tier-03.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1148,18 +1157,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1199,7 +1208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1239,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1247,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1271,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1279,7 +1288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1295,7 +1304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1303,7 +1312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1311,7 +1320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -1335,7 +1344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1351,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1383,7 +1392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1415,7 +1424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1423,7 +1432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1431,7 +1440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1447,7 +1456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -1455,7 +1464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1463,7 +1472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -1479,7 +1488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -1495,7 +1504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1503,7 +1512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1511,7 +1520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -1519,7 +1528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1527,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1543,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1551,7 +1560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1559,7 +1568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1567,7 +1576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1575,7 +1584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -1583,7 +1592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -1591,7 +1600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -1599,7 +1608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -1615,7 +1624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -1631,7 +1640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -1647,7 +1656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -1655,7 +1664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -1663,7 +1672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -1671,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -1695,7 +1704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -1711,7 +1720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -1727,7 +1736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -1735,7 +1744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -1743,7 +1752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -1751,7 +1760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -1759,7 +1768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -1767,7 +1776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -1775,7 +1784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -1783,7 +1792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -1791,7 +1800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -1831,7 +1840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -1839,7 +1848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -1847,8 +1856,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B86">
+  <conditionalFormatting sqref="B2:B89">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{76FB24AC-3948-4735-B662-243BF4DEC557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5AA0BB16-5511-374F-B1DB-C3C0A584B215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20064" yWindow="3540" windowWidth="19512" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18880" yWindow="3540" windowWidth="19520" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1159,16 +1159,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -1464,15 +1464,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>59</v>
       </c>
       <c r="B38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5AA0BB16-5511-374F-B1DB-C3C0A584B215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C9482618-1133-F44E-99F3-7F11C2E0D6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18880" yWindow="3540" windowWidth="19520" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12620" yWindow="3800" windowWidth="19520" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="90" uniqueCount="90">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="91" uniqueCount="91">
   <si>
     <t>file_name</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>tier-03.Rnw</t>
+  </si>
+  <si>
+    <t>050-chi-square-03-R.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1482,47 +1485,47 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -1530,23 +1533,23 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>9</v>
@@ -1554,55 +1557,55 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>9</v>
@@ -1610,15 +1613,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>10</v>
@@ -1626,63 +1629,63 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -1690,7 +1693,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -1698,47 +1701,47 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1746,23 +1749,23 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -1770,7 +1773,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -1778,7 +1781,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77">
         <v>10</v>
@@ -1786,23 +1789,23 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -1810,7 +1813,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81">
         <v>10</v>
@@ -1818,7 +1821,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82">
         <v>10</v>
@@ -1826,7 +1829,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -1834,7 +1837,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84">
         <v>10</v>
@@ -1842,7 +1845,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85">
         <v>10</v>
@@ -1850,7 +1853,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86">
         <v>10</v>
@@ -1858,30 +1861,38 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B89">
+  <conditionalFormatting sqref="B2:B90">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C9482618-1133-F44E-99F3-7F11C2E0D6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9FE801DF-C258-9F4B-AEC8-CB5E4627044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12620" yWindow="3800" windowWidth="19520" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="91" uniqueCount="91">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="92" uniqueCount="92">
   <si>
     <t>file_name</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>050-chi-square-03-R.Rnw</t>
+  </si>
+  <si>
+    <t>math-18.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1160,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1869,30 +1872,38 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B90">
+  <conditionalFormatting sqref="B2:B91">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/exam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9FE801DF-C258-9F4B-AEC8-CB5E4627044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CBB28ADE-A7D2-4586-AD85-2181030600A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="3800" windowWidth="19520" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5988" yWindow="480" windowWidth="15876" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1165,16 +1165,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -1742,15 +1742,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
       <c r="B72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CBB28ADE-A7D2-4586-AD85-2181030600A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DF9C226A-CA0D-344F-8F2B-1968C07A9293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5988" yWindow="480" windowWidth="15876" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5980" yWindow="500" windowWidth="15880" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1165,16 +1165,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -1742,15 +1742,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>68</v>
       </c>
       <c r="B72">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DF9C226A-CA0D-344F-8F2B-1968C07A9293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0FD46E4-B186-5B42-B0B2-E5BF5ED86DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="500" windowWidth="15880" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="92" uniqueCount="92">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="94" uniqueCount="94">
   <si>
     <t>file_name</t>
   </si>
@@ -242,9 +242,6 @@
     <t>math-01.Rnw</t>
   </si>
   <si>
-    <t>math-02.Rnw</t>
-  </si>
-  <si>
     <t>math-03.Rnw</t>
   </si>
   <si>
@@ -312,6 +309,15 @@
   </si>
   <si>
     <t>math-18.Rnw</t>
+  </si>
+  <si>
+    <t>math-02-b.Rnw</t>
+  </si>
+  <si>
+    <t>math-02-a.Rnw</t>
+  </si>
+  <si>
+    <t>math-19.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1350,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -1352,7 +1358,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -1360,7 +1366,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -1488,7 +1494,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -1744,7 +1750,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1752,7 +1758,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -1760,23 +1766,23 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -1784,7 +1790,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B77">
         <v>10</v>
@@ -1792,7 +1798,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B78">
         <v>10</v>
@@ -1800,23 +1806,23 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B81">
         <v>10</v>
@@ -1824,7 +1830,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B82">
         <v>10</v>
@@ -1832,7 +1838,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -1840,7 +1846,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B84">
         <v>10</v>
@@ -1848,7 +1854,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B85">
         <v>10</v>
@@ -1856,7 +1862,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <v>10</v>
@@ -1864,7 +1870,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B87">
         <v>10</v>
@@ -1872,7 +1878,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B88">
         <v>10</v>
@@ -1880,30 +1886,46 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B91">
         <v>6</v>
       </c>
     </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B91">
+  <conditionalFormatting sqref="B2:B93">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0FD46E4-B186-5B42-B0B2-E5BF5ED86DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{34957C70-C956-6644-9B69-FC05ABD3B5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="500" windowWidth="15880" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="94" uniqueCount="94">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="95" uniqueCount="95">
   <si>
     <t>file_name</t>
   </si>
@@ -311,13 +311,16 @@
     <t>math-18.Rnw</t>
   </si>
   <si>
-    <t>math-02-b.Rnw</t>
-  </si>
-  <si>
-    <t>math-02-a.Rnw</t>
-  </si>
-  <si>
     <t>math-19.Rnw</t>
+  </si>
+  <si>
+    <t>math-02.Rnw</t>
+  </si>
+  <si>
+    <t>math-20.Rnw</t>
+  </si>
+  <si>
+    <t>math-21.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1169,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1758,7 +1761,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -1766,7 +1769,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B74">
         <v>10</v>
@@ -1774,7 +1777,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -1782,7 +1785,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -1790,7 +1793,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B77">
         <v>10</v>
@@ -1798,7 +1801,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B78">
         <v>10</v>
@@ -1806,23 +1809,23 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B81">
         <v>10</v>
@@ -1830,7 +1833,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B82">
         <v>10</v>
@@ -1838,7 +1841,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -1846,7 +1849,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84">
         <v>10</v>
@@ -1854,7 +1857,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B85">
         <v>10</v>
@@ -1862,7 +1865,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B86">
         <v>10</v>
@@ -1870,7 +1873,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87">
         <v>10</v>
@@ -1878,15 +1881,15 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>10</v>
@@ -1902,30 +1905,38 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>88</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B93">
+  <conditionalFormatting sqref="B2:B94">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{34957C70-C956-6644-9B69-FC05ABD3B5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{30929EF9-DC82-5F49-9572-5E64CADED2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="500" windowWidth="15880" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1844,7 +1844,7 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{30929EF9-DC82-5F49-9572-5E64CADED2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1F2066A1-0D48-A34B-BB86-FFC7783A6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="500" windowWidth="15880" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5980" yWindow="500" windowWidth="18280" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="95" uniqueCount="95">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="92" uniqueCount="92">
   <si>
     <t>file_name</t>
   </si>
@@ -74,9 +74,6 @@
     <t>012-boxplot-03_c.Rnw</t>
   </si>
   <si>
-    <t>012-boxplot-04.Rnw</t>
-  </si>
-  <si>
     <t>013-dotplot-01.Rnw</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>020-statistisches-testen-04_c.Rnw</t>
   </si>
   <si>
-    <t>020-statistisches-testen-06.Rnw</t>
-  </si>
-  <si>
     <t>100-multcomp-02.Rnw</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
   </si>
   <si>
     <t>041-anova-02_c.Rnw</t>
-  </si>
-  <si>
-    <t>041-anova-05.Rnw</t>
   </si>
   <si>
     <t>042-anova-05_c.Rnw</t>
@@ -1172,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,7 +1267,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1284,15 +1275,15 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1300,7 +1291,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1308,7 +1299,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1321,15 +1312,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1337,55 +1328,55 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1393,26 +1384,26 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1420,7 +1411,7 @@
         <v>47</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1428,7 +1419,7 @@
         <v>46</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1436,52 +1427,52 @@
         <v>48</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>11</v>
@@ -1489,15 +1480,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -1508,20 +1499,20 @@
         <v>61</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -1529,159 +1520,159 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -1689,23 +1680,23 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -1713,50 +1704,50 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1780,7 +1771,7 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1788,7 +1779,7 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1812,7 +1803,7 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1820,7 +1811,7 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1844,7 +1835,7 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1857,15 +1848,15 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>10</v>
@@ -1873,7 +1864,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B87">
         <v>10</v>
@@ -1881,62 +1872,38 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B89">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B91">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>87</v>
-      </c>
-      <c r="B93">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B94">
+  <conditionalFormatting sqref="B2:B91">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1F2066A1-0D48-A34B-BB86-FFC7783A6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{66934E68-C849-8744-96B1-D1C3F9B9EE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="500" windowWidth="18280" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1859,7 +1859,7 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{66934E68-C849-8744-96B1-D1C3F9B9EE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{167D6606-2E91-4940-8521-804D06EB94F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="500" windowWidth="18280" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="500" windowWidth="18280" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1259,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{167D6606-2E91-4940-8521-804D06EB94F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{05CBA25B-33E3-4646-A37F-24C65E28110D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="500" windowWidth="18280" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="92" uniqueCount="92">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="87">
   <si>
     <t>file_name</t>
   </si>
@@ -78,21 +78,6 @@
   </si>
   <si>
     <t>014-mosaicplot-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>101-R-programming-05.Rnw</t>
-  </si>
-  <si>
-    <t>101-R-programming-04.Rnw</t>
-  </si>
-  <si>
-    <t>101-R-programming-03.Rnw</t>
-  </si>
-  <si>
-    <t>101-R-programming-02.Rnw</t>
-  </si>
-  <si>
-    <t>101-R-programming-01.Rnw</t>
   </si>
   <si>
     <t>015-scatterplot-01_c.Rnw</t>
@@ -867,9 +852,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -907,7 +892,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1013,7 +998,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1155,7 +1140,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1163,18 +1148,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1198,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1206,7 +1191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1278,455 +1263,455 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B49">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B51">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B53">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B57">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B58">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B59">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B60">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B61">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B62">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B64">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B65">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B67">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>64</v>
       </c>
-      <c r="B68">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>89</v>
-      </c>
       <c r="B69">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -1734,23 +1719,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>66</v>
       </c>
       <c r="B71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
       <c r="B72">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -1758,7 +1743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -1766,23 +1751,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>70</v>
       </c>
       <c r="B75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>71</v>
       </c>
       <c r="B76">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -1790,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -1798,7 +1783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -1806,104 +1791,64 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>78</v>
       </c>
-      <c r="B83">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="B84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>79</v>
       </c>
-      <c r="B84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
       <c r="B85">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B86">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>85</v>
-      </c>
-      <c r="B91">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B91">
+  <conditionalFormatting sqref="B2:B86">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{05CBA25B-33E3-4646-A37F-24C65E28110D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{45497DD1-81D6-C047-BDB1-00F5037A5FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="8040" windowWidth="30960" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>011-histogram-04.Rnw</t>
   </si>
   <si>
-    <t>012-boxplot-01_c.Rnw</t>
-  </si>
-  <si>
     <t>012-boxplot-02_c.Rnw</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>math-21.Rnw</t>
+  </si>
+  <si>
+    <t>011-boxplot-01_c.Rnw</t>
   </si>
 </sst>
 </file>
@@ -852,9 +852,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -892,7 +892,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -998,7 +998,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1140,7 +1140,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1150,16 +1150,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1223,625 +1223,625 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>14</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>34</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>35</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>55</v>
-      </c>
-      <c r="B40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>56</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B57">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>60</v>
       </c>
-      <c r="B65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>61</v>
-      </c>
-      <c r="B66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>62</v>
       </c>
       <c r="B67">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>63</v>
       </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>64</v>
       </c>
-      <c r="B69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>65</v>
-      </c>
-      <c r="B70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>66</v>
       </c>
       <c r="B71">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>67</v>
       </c>
-      <c r="B72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>68</v>
       </c>
-      <c r="B73">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>69</v>
-      </c>
-      <c r="B74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>70</v>
       </c>
       <c r="B75">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>71</v>
       </c>
-      <c r="B76">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>72</v>
       </c>
-      <c r="B77">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>73</v>
       </c>
-      <c r="B78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>74</v>
-      </c>
       <c r="B79">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>85</v>
       </c>
-      <c r="B82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
       <c r="B83">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B85">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B86">
         <v>6</v>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{45497DD1-81D6-C047-BDB1-00F5037A5FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B97B34EA-45EA-C649-BAEE-F280AC71508C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="8040" windowWidth="30960" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,7 +1284,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B97B34EA-45EA-C649-BAEE-F280AC71508C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{81F0B242-F55F-CB4F-8716-E532E6857361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="8040" windowWidth="30960" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21740" yWindow="3580" windowWidth="16980" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="87">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
   <si>
     <t>file_name</t>
   </si>
@@ -44,174 +45,6 @@
     <t>points</t>
   </si>
   <si>
-    <t>010-desc-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>010-desc-02_c.Rnw</t>
-  </si>
-  <si>
-    <t>011-barplot-01.Rnw</t>
-  </si>
-  <si>
-    <t>011-histogram-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>011-histogram-02_c.Rnw</t>
-  </si>
-  <si>
-    <t>011-histogram-03.Rnw</t>
-  </si>
-  <si>
-    <t>011-histogram-04.Rnw</t>
-  </si>
-  <si>
-    <t>012-boxplot-02_c.Rnw</t>
-  </si>
-  <si>
-    <t>012-boxplot-03_c.Rnw</t>
-  </si>
-  <si>
-    <t>013-dotplot-01.Rnw</t>
-  </si>
-  <si>
-    <t>014-mosaicplot-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>015-scatterplot-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>020-statistisches-testen-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>020-statistisches-testen-02_c.Rnw</t>
-  </si>
-  <si>
-    <t>020-statistisches-testen-03_c.Rnw</t>
-  </si>
-  <si>
-    <t>020-statistisches-testen-05_c.Rnw</t>
-  </si>
-  <si>
-    <t>020-statistisches-testen-04_c.Rnw</t>
-  </si>
-  <si>
-    <t>100-multcomp-02.Rnw</t>
-  </si>
-  <si>
-    <t>100-multcomp-03.Rnw</t>
-  </si>
-  <si>
-    <t>100-multcomp-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>090-utest-03_c.Rnw</t>
-  </si>
-  <si>
-    <t>090-utest-02_c.Rnw</t>
-  </si>
-  <si>
-    <t>090-utest-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>073-regression-R-lmm-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>072-regression-R-glm-03-logistic_c.Rnw</t>
-  </si>
-  <si>
-    <t>072-regression-R-glm-02-poisson_c.Rnw</t>
-  </si>
-  <si>
-    <t>072-regression-R-glm-01-gaussian_c.Rnw</t>
-  </si>
-  <si>
-    <t>071-modeling-R-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>070-regression-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>062-regression-05_c.Rnw</t>
-  </si>
-  <si>
-    <t>062-regression-04_c.Rnw</t>
-  </si>
-  <si>
-    <t>031-ttest-R-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>031-ttest-R-02_c.Rnw</t>
-  </si>
-  <si>
-    <t>031-ttest-R-04.Rnw</t>
-  </si>
-  <si>
-    <t>031-ttest-R-03_c.Rnw</t>
-  </si>
-  <si>
-    <t>040-anova-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>041-anova-04_c.Rnw</t>
-  </si>
-  <si>
-    <t>041-anova-02_c.Rnw</t>
-  </si>
-  <si>
-    <t>042-anova-05_c.Rnw</t>
-  </si>
-  <si>
-    <t>042-anova-03_c.Rnw</t>
-  </si>
-  <si>
-    <t>043-anova-06.Rnw</t>
-  </si>
-  <si>
-    <t>043-anova-07.Rnw</t>
-  </si>
-  <si>
-    <t>062-regression-03_c.Rnw</t>
-  </si>
-  <si>
-    <t>061-correlation-03.Rnw</t>
-  </si>
-  <si>
-    <t>061-correlation-02_c.Rnw</t>
-  </si>
-  <si>
-    <t>061-correlation-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>060-4-modeling-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>043-anova-08.Rnw</t>
-  </si>
-  <si>
-    <t>050-chi-square-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>050-chi-square-02_c.Rnw</t>
-  </si>
-  <si>
-    <t>051-diag-01_c.Rnw</t>
-  </si>
-  <si>
-    <t>051-diag-02_c.Rnw</t>
-  </si>
-  <si>
-    <t>051-diag-03_c.Rnw</t>
-  </si>
-  <si>
-    <t>060-1-scatterplot-02_c.Rnw</t>
-  </si>
-  <si>
-    <t>060-3-regression-R-glm-04-gaussian_c.Rnw</t>
-  </si>
-  <si>
-    <t>060-2-regression-02_c.Rnw</t>
-  </si>
-  <si>
     <t>math-01.Rnw</t>
   </si>
   <si>
@@ -260,15 +93,6 @@
     <t>math-17.Rnw</t>
   </si>
   <si>
-    <t>030-ttest-calc-3.Rnw</t>
-  </si>
-  <si>
-    <t>030-ttest-calc-2.Rnw</t>
-  </si>
-  <si>
-    <t>030-ttest-calc-1.Rnw</t>
-  </si>
-  <si>
     <t>tier-01.Rnw</t>
   </si>
   <si>
@@ -278,9 +102,6 @@
     <t>tier-03.Rnw</t>
   </si>
   <si>
-    <t>050-chi-square-03-R.Rnw</t>
-  </si>
-  <si>
     <t>math-18.Rnw</t>
   </si>
   <si>
@@ -296,14 +117,182 @@
     <t>math-21.Rnw</t>
   </si>
   <si>
-    <t>011-boxplot-01_c.Rnw</t>
+    <t>stat_test-01.Rnw</t>
+  </si>
+  <si>
+    <t>stat_test-02.Rnw</t>
+  </si>
+  <si>
+    <t>stat_test-03.Rnw</t>
+  </si>
+  <si>
+    <t>stat_test-04.Rnw</t>
+  </si>
+  <si>
+    <t>stat_test-05.Rnw</t>
+  </si>
+  <si>
+    <t>ttest-01.Rnw</t>
+  </si>
+  <si>
+    <t>ttest-02.Rnw</t>
+  </si>
+  <si>
+    <t>ttest-03.Rnw</t>
+  </si>
+  <si>
+    <t>ttest-04.Rnw</t>
+  </si>
+  <si>
+    <t>ttest-05.Rnw</t>
+  </si>
+  <si>
+    <t>ttest-06.Rnw</t>
+  </si>
+  <si>
+    <t>ttest-07.Rnw</t>
+  </si>
+  <si>
+    <t>anova-01.Rnw</t>
+  </si>
+  <si>
+    <t>anova-02.Rnw</t>
+  </si>
+  <si>
+    <t>anova-03.Rnw</t>
+  </si>
+  <si>
+    <t>anova-04.Rnw</t>
+  </si>
+  <si>
+    <t>anova-05.Rnw</t>
+  </si>
+  <si>
+    <t>anova-06.Rnw</t>
+  </si>
+  <si>
+    <t>anova-07.Rnw</t>
+  </si>
+  <si>
+    <t>anova-08.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-01.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-02.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-03.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-04.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-05.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-06.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-01.Rnw</t>
+  </si>
+  <si>
+    <t>nonpar-01.Rnw</t>
+  </si>
+  <si>
+    <t>multcomp-01.Rnw</t>
+  </si>
+  <si>
+    <t>multcomp-03.Rnw</t>
+  </si>
+  <si>
+    <t>multcomp-02.Rnw</t>
+  </si>
+  <si>
+    <t>nonpar-03.Rnw</t>
+  </si>
+  <si>
+    <t>nonpar-02.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-02.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-03.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-04.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-05.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-06.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-07.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-08.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-09.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-10.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-11.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-12.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-01.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-02.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-03.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-04.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-05.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-06.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-07.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-08.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-09.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-10.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-11.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-12.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-13.Rnw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -434,6 +423,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -780,8 +776,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1148,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,23 +1166,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -1193,7 +1190,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -1201,15 +1198,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
+      <c r="A7" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1217,7 +1214,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -1225,23 +1222,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1249,39 +1246,39 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1289,15 +1286,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1305,7 +1302,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1313,7 +1310,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>12</v>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -1329,7 +1326,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>11</v>
@@ -1337,7 +1334,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -1345,7 +1342,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -1361,7 +1358,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1369,7 +1366,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -1385,7 +1382,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -1401,7 +1398,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1409,7 +1406,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -1417,23 +1414,23 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>11</v>
@@ -1441,7 +1438,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>7</v>
@@ -1449,7 +1446,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -1457,7 +1454,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>11</v>
@@ -1465,7 +1462,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>12</v>
@@ -1473,7 +1470,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -1481,7 +1478,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -1497,7 +1494,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -1505,7 +1502,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -1513,7 +1510,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -1521,7 +1518,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -1529,7 +1526,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B47">
         <v>12</v>
@@ -1537,7 +1534,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -1545,7 +1542,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -1553,7 +1550,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -1561,7 +1558,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -1569,7 +1566,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B52">
         <v>9</v>
@@ -1577,23 +1574,23 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -1601,23 +1598,23 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -1625,39 +1622,39 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <v>12</v>
@@ -1665,7 +1662,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1673,7 +1670,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1681,7 +1678,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1689,7 +1686,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>12</v>
@@ -1697,7 +1694,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1705,7 +1702,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -1713,7 +1710,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -1721,7 +1718,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>12</v>
@@ -1729,7 +1726,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1737,7 +1734,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -1745,7 +1742,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="B74">
         <v>10</v>
@@ -1753,31 +1750,31 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B78">
         <v>10</v>
@@ -1785,7 +1782,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B79">
         <v>10</v>
@@ -1793,62 +1790,30 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B81">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B86">
+  <conditionalFormatting sqref="B2:B82">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{81F0B242-F55F-CB4F-8716-E532E6857361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B931D0DE-8884-3043-A312-886FDB1ED34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21740" yWindow="3580" windowWidth="16980" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21420" yWindow="3580" windowWidth="16980" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="82" uniqueCount="82">
   <si>
     <t>file_name</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>desc_stat-08.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-09.Rnw</t>
   </si>
   <si>
     <t>desc_stat-10.Rnw</t>
@@ -1145,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1206,7 @@
         <v>75</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1229,11 +1226,11 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>78</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1241,7 +1238,7 @@
         <v>79</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1262,15 +1259,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -1278,7 +1275,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1286,15 +1283,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1302,15 +1299,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>12</v>
@@ -1318,47 +1315,47 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1366,47 +1363,47 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -1414,79 +1411,79 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -1494,23 +1491,23 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -1518,119 +1515,119 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1638,7 +1635,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1646,23 +1643,23 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1670,7 +1667,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1678,23 +1675,23 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1702,7 +1699,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -1710,23 +1707,23 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
         <v>12</v>
-      </c>
-      <c r="B70">
-        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1734,7 +1731,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B74">
         <v>10</v>
@@ -1750,15 +1747,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B76">
         <v>12</v>
@@ -1766,15 +1763,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B78">
         <v>10</v>
@@ -1782,38 +1779,30 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B81">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>20</v>
-      </c>
-      <c r="B82">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B82">
+  <conditionalFormatting sqref="B2:B81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B931D0DE-8884-3043-A312-886FDB1ED34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1C83A25F-7854-45A7-8786-C3A699520810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="3580" windowWidth="16980" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -846,9 +845,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -886,7 +885,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -992,7 +991,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1134,7 +1133,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1144,16 +1143,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1169,7 +1168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
@@ -1209,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1217,7 +1216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1361,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1385,7 +1384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1401,7 +1400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1417,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1425,7 +1424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1441,7 +1440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -1553,7 +1552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1593,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1641,15 +1640,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1673,7 +1672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -1737,7 +1736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -1777,7 +1776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +1784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>20</v>
       </c>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1C83A25F-7854-45A7-8786-C3A699520810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3360B14C-55CB-442D-8B7C-094696B19B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1597,7 +1597,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1605,7 +1605,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3360B14C-55CB-442D-8B7C-094696B19B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3D8C6E1C-69ED-144D-900E-EBE483D42EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="30960" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="82" uniqueCount="82">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
   <si>
     <t>file_name</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>desc_stat-13.Rnw</t>
+  </si>
+  <si>
+    <t>ttest-08.Rnw</t>
   </si>
 </sst>
 </file>
@@ -845,9 +848,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -885,7 +888,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -991,7 +994,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1133,7 +1136,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1141,18 +1144,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1304,504 +1307,512 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>41</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>43</v>
-      </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>44</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>45</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>46</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>47</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>48</v>
       </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>49</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>50</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>51</v>
       </c>
-      <c r="B39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>52</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>59</v>
       </c>
-      <c r="B41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>60</v>
       </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>61</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>62</v>
-      </c>
-      <c r="B44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>63</v>
       </c>
       <c r="B45">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>64</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>65</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>66</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>67</v>
       </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>68</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>69</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>54</v>
-      </c>
-      <c r="B55">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>56</v>
       </c>
       <c r="B56">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>2</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>23</v>
       </c>
-      <c r="B59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="B60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>3</v>
       </c>
-      <c r="B60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>4</v>
       </c>
-      <c r="B61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>5</v>
       </c>
-      <c r="B62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>6</v>
       </c>
-      <c r="B63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="B65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>8</v>
       </c>
-      <c r="B65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>9</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>12</v>
       </c>
-      <c r="B69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>13</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>14</v>
       </c>
-      <c r="B71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>15</v>
       </c>
-      <c r="B72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>16</v>
       </c>
-      <c r="B73">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>17</v>
       </c>
-      <c r="B74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>21</v>
-      </c>
-      <c r="B75">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>22</v>
       </c>
       <c r="B76">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>24</v>
       </c>
-      <c r="B77">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>25</v>
       </c>
-      <c r="B78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>18</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>19</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>20</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B81">
+  <conditionalFormatting sqref="B2:B82">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3D8C6E1C-69ED-144D-900E-EBE483D42EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1E6D5681-6B37-3D42-A58F-924E26719755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="30960" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="84">
   <si>
     <t>file_name</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>ttest-08.Rnw</t>
+  </si>
+  <si>
+    <t>anova-09.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1376,7 +1379,7 @@
         <v>39</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1384,7 +1387,7 @@
         <v>40</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1392,7 +1395,7 @@
         <v>41</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1400,7 +1403,7 @@
         <v>42</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1408,7 +1411,7 @@
         <v>43</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1424,76 +1427,76 @@
         <v>45</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -1501,23 +1504,23 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -1525,87 +1528,87 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -1613,31 +1616,31 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1645,7 +1648,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1653,7 +1656,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1661,7 +1664,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1669,7 +1672,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1677,7 +1680,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1685,23 +1688,23 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -1717,23 +1720,23 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -1741,7 +1744,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74">
         <v>10</v>
@@ -1749,7 +1752,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -1757,15 +1760,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77">
         <v>12</v>
@@ -1773,15 +1776,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79">
         <v>10</v>
@@ -1789,30 +1792,38 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>20</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B82">
+  <conditionalFormatting sqref="B2:B83">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1E6D5681-6B37-3D42-A58F-924E26719755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5007EC27-0502-294A-A5C1-218BC1F94A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="30960" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="84">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="80" uniqueCount="80">
   <si>
     <t>file_name</t>
   </si>
@@ -191,9 +191,6 @@
     <t>chisquare-05.Rnw</t>
   </si>
   <si>
-    <t>chisquare-06.Rnw</t>
-  </si>
-  <si>
     <t>linreg-01.Rnw</t>
   </si>
   <si>
@@ -237,15 +234,6 @@
   </si>
   <si>
     <t>linreg-09.Rnw</t>
-  </si>
-  <si>
-    <t>linreg-10.Rnw</t>
-  </si>
-  <si>
-    <t>linreg-11.Rnw</t>
-  </si>
-  <si>
-    <t>linreg-12.Rnw</t>
   </si>
   <si>
     <t>desc_stat-01.Rnw</t>
@@ -1147,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1156,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1176,7 +1164,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -1184,7 +1172,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -1192,7 +1180,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -1200,7 +1188,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -1208,7 +1196,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1216,7 +1204,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -1224,7 +1212,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1232,7 +1220,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1240,7 +1228,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1248,7 +1236,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -1256,7 +1244,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -1360,7 +1348,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1432,7 +1420,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B35">
         <v>9</v>
@@ -1483,15 +1471,15 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1507,7 +1495,7 @@
         <v>60</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1515,7 +1503,7 @@
         <v>61</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1523,7 +1511,7 @@
         <v>62</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1519,7 @@
         <v>63</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1547,100 +1535,100 @@
         <v>65</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1648,7 +1636,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1656,7 +1644,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1664,15 +1652,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1680,7 +1668,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1688,7 +1676,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1696,7 +1684,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B68">
         <v>12</v>
@@ -1704,7 +1692,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -1712,7 +1700,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -1720,7 +1708,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1728,31 +1716,31 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -1760,7 +1748,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -1768,62 +1756,30 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B83">
+  <conditionalFormatting sqref="B2:B79">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5007EC27-0502-294A-A5C1-218BC1F94A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9B220BB6-F154-2241-967D-043D2EAB9A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="30960" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1303,7 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9B220BB6-F154-2241-967D-043D2EAB9A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E0DEC0BC-CC2F-3E42-994E-5A5D03D17251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="30960" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E0DEC0BC-CC2F-3E42-994E-5A5D03D17251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1D985006-55DB-684C-910A-E1A024B6B623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="30960" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="80" uniqueCount="80">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="78" uniqueCount="78">
   <si>
     <t>file_name</t>
   </si>
@@ -108,12 +108,6 @@
   </si>
   <si>
     <t>math-02.Rnw</t>
-  </si>
-  <si>
-    <t>math-20.Rnw</t>
-  </si>
-  <si>
-    <t>math-21.Rnw</t>
   </si>
   <si>
     <t>stat_test-01.Rnw</t>
@@ -839,9 +833,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -879,7 +873,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -985,7 +979,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1127,7 +1121,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1135,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1150,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1164,7 +1158,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -1172,7 +1166,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -1180,7 +1174,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -1188,7 +1182,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -1196,7 +1190,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1204,7 +1198,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -1212,7 +1206,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1220,7 +1214,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1228,7 +1222,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1236,7 +1230,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -1244,7 +1238,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -1252,7 +1246,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -1260,7 +1254,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -1268,7 +1262,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -1284,7 +1278,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1292,7 +1286,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -1300,7 +1294,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -1308,7 +1302,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -1316,7 +1310,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>11</v>
@@ -1324,7 +1318,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -1332,7 +1326,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -1340,7 +1334,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -1348,7 +1342,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1356,7 +1350,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -1364,7 +1358,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -1372,7 +1366,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>12</v>
@@ -1380,7 +1374,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -1388,7 +1382,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -1396,7 +1390,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -1404,7 +1398,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -1412,7 +1406,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -1420,7 +1414,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35">
         <v>9</v>
@@ -1428,7 +1422,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -1436,7 +1430,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -1444,7 +1438,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -1452,7 +1446,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>11</v>
@@ -1460,7 +1454,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>12</v>
@@ -1468,7 +1462,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -1476,7 +1470,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -1484,7 +1478,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -1492,7 +1486,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44">
         <v>9</v>
@@ -1500,7 +1494,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -1508,7 +1502,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46">
         <v>12</v>
@@ -1516,7 +1510,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -1524,7 +1518,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48">
         <v>12</v>
@@ -1532,7 +1526,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <v>9</v>
@@ -1540,7 +1534,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>12</v>
@@ -1548,7 +1542,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -1556,7 +1550,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -1564,7 +1558,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -1572,7 +1566,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -1580,7 +1574,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55">
         <v>9</v>
@@ -1740,46 +1734,30 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B77">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B79">
+  <conditionalFormatting sqref="B2:B77">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1D985006-55DB-684C-910A-E1A024B6B623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7A71EAE8-D474-FE47-BF31-4BF19197B026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="30960" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="78" uniqueCount="78">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="79" uniqueCount="79">
   <si>
     <t>file_name</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>anova-09.Rnw</t>
+  </si>
+  <si>
+    <t>math-20.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1734,30 +1737,38 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>20</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B77">
+  <conditionalFormatting sqref="B2:B78">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7A71EAE8-D474-FE47-BF31-4BF19197B026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DE87A2DD-D971-B349-9002-8059E4135212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="30960" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="79" uniqueCount="79">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="80" uniqueCount="80">
   <si>
     <t>file_name</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>math-20.Rnw</t>
+  </si>
+  <si>
+    <t>experiment-01.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,15 +1252,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1273,15 +1276,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1289,71 +1292,71 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -1361,55 +1364,55 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -1417,71 +1420,71 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -1489,15 +1492,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -1505,71 +1508,71 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -1577,23 +1580,23 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <v>10</v>
@@ -1601,7 +1604,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -1609,7 +1612,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -1617,7 +1620,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1625,7 +1628,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1641,7 +1644,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1649,23 +1652,23 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1673,7 +1676,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1681,23 +1684,23 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -1705,7 +1708,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1713,7 +1716,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1721,15 +1724,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74">
         <v>12</v>
@@ -1737,38 +1740,46 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>20</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B78">
+  <conditionalFormatting sqref="B2:B79">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DE87A2DD-D971-B349-9002-8059E4135212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4DEB2D0F-5CCE-5041-82CE-1085D28C1880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="30960" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="80" uniqueCount="80">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="81" uniqueCount="81">
   <si>
     <t>file_name</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>experiment-01.Rnw</t>
+  </si>
+  <si>
+    <t>math-21.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1756,30 +1759,38 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>20</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B79">
+  <conditionalFormatting sqref="B2:B80">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4DEB2D0F-5CCE-5041-82CE-1085D28C1880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FE479319-D8EF-5F43-8612-94AC1D8F42D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="30960" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40620" yWindow="3920" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1634,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1666,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1698,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1714,7 +1714,7 @@
         <v>15</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1762,7 +1762,7 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FE479319-D8EF-5F43-8612-94AC1D8F42D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{640FC298-2A02-3942-910C-F3FD0A39AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40620" yWindow="3920" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{640FC298-2A02-3942-910C-F3FD0A39AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F438910-0D1E-9F4B-8679-22EBB9169262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40620" yWindow="3920" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1650,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F438910-0D1E-9F4B-8679-22EBB9169262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E7BE5699-080D-1E48-830D-37BECFF62CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40620" yWindow="3920" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1594,7 +1594,7 @@
         <v>52</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E7BE5699-080D-1E48-830D-37BECFF62CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EEFDB2C7-F1C3-1B45-B6CD-21BCC538C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40620" yWindow="3920" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="4240" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1210,7 @@
         <v>70</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EEFDB2C7-F1C3-1B45-B6CD-21BCC538C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{14913D65-63FC-EF43-8F01-A16DAEE794DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="4240" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1370,7 +1370,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1482,7 +1482,7 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{14913D65-63FC-EF43-8F01-A16DAEE794DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9258B1F3-21B5-A742-92FF-F30D49994351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1578,7 @@
         <v>51</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9258B1F3-21B5-A742-92FF-F30D49994351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{019925E2-E95C-444F-BBF4-D515A60187EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="81" uniqueCount="81">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="82" uniqueCount="82">
   <si>
     <t>file_name</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>math-21.Rnw</t>
+  </si>
+  <si>
+    <t>multcomp-04.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1442,7 +1445,7 @@
         <v>44</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1450,7 +1453,7 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1578,7 +1581,7 @@
         <v>51</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1586,7 +1589,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1599,23 +1602,23 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -1623,47 +1626,47 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
         <v>8</v>
-      </c>
-      <c r="B64">
-        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1679,23 +1682,23 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68">
         <v>12</v>
-      </c>
-      <c r="B68">
-        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -1703,7 +1706,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -1711,23 +1714,23 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -1735,15 +1738,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -1751,46 +1754,54 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>20</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B80">
+  <conditionalFormatting sqref="B2:B81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{019925E2-E95C-444F-BBF4-D515A60187EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E2229F06-1D86-C34A-85A5-A7411D60819E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -828,6 +828,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1143,8 +1173,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1485,7 +1515,7 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1493,7 +1523,7 @@
         <v>56</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1802,8 +1832,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B81">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E2229F06-1D86-C34A-85A5-A7411D60819E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D59F4405-7E28-094A-92A0-FA6958C1CDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="82" uniqueCount="82">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="84">
   <si>
     <t>file_name</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>multcomp-04.Rnw</t>
+  </si>
+  <si>
+    <t>forsch-lern-01.Rnw</t>
+  </si>
+  <si>
+    <t>forsch-lern-02.Rnw</t>
   </si>
 </sst>
 </file>
@@ -823,6 +829,16 @@
   <dxfs count="4">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -848,16 +864,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1171,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1203,7 +1209,7 @@
         <v>65</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1211,7 +1217,7 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1537,7 @@
         <v>57</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1640,63 +1646,63 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1704,15 +1710,15 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1720,15 +1726,15 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -1736,15 +1742,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1752,15 +1758,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -1768,39 +1774,39 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B78">
         <v>12</v>
@@ -1808,35 +1814,51 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B81">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="B2:B83">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D59F4405-7E28-094A-92A0-FA6958C1CDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{12B1C393-6CF6-E546-9119-B0542F29A8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="84">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
   <si>
     <t>file_name</t>
   </si>
@@ -188,9 +188,6 @@
     <t>linreg-01.Rnw</t>
   </si>
   <si>
-    <t>nonpar-01.Rnw</t>
-  </si>
-  <si>
     <t>multcomp-01.Rnw</t>
   </si>
   <si>
@@ -200,12 +197,6 @@
     <t>multcomp-02.Rnw</t>
   </si>
   <si>
-    <t>nonpar-03.Rnw</t>
-  </si>
-  <si>
-    <t>nonpar-02.Rnw</t>
-  </si>
-  <si>
     <t>linreg-02.Rnw</t>
   </si>
   <si>
@@ -288,6 +279,12 @@
   </si>
   <si>
     <t>forsch-lern-02.Rnw</t>
+  </si>
+  <si>
+    <t>program-R-01.Rnw</t>
+  </si>
+  <si>
+    <t>program-R-02.Rnw</t>
   </si>
 </sst>
 </file>
@@ -826,17 +823,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -854,16 +841,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1177,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,7 +1175,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1206,7 +1183,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1214,7 +1191,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -1222,7 +1199,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -1230,7 +1207,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -1238,7 +1215,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1246,7 +1223,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -1254,7 +1231,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1262,7 +1239,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1270,7 +1247,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1278,7 +1255,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -1286,7 +1263,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -1294,7 +1271,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1398,7 +1375,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -1470,7 +1447,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>9</v>
@@ -1526,7 +1503,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>12</v>
@@ -1534,7 +1511,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>11</v>
@@ -1542,7 +1519,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -1550,7 +1527,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -1558,7 +1535,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -1566,7 +1543,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -1574,7 +1551,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -1582,7 +1559,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>9</v>
@@ -1598,15 +1575,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>10</v>
@@ -1614,7 +1591,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -1622,18 +1599,18 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1641,7 +1618,7 @@
         <v>81</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1649,28 +1626,28 @@
         <v>82</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1678,7 +1655,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1686,23 +1663,23 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1710,15 +1687,15 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1726,7 +1703,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1734,23 +1711,23 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1758,7 +1735,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1766,23 +1743,23 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -1790,15 +1767,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B77">
         <v>12</v>
@@ -1806,58 +1783,50 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B83">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B2:B82">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{12B1C393-6CF6-E546-9119-B0542F29A8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4E006C27-7711-0347-8118-C1D0384EB797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="2920" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1156,8 +1156,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,7 +1602,7 @@
         <v>79</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1610,7 +1610,7 @@
         <v>80</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1618,7 +1618,7 @@
         <v>81</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1626,7 +1626,7 @@
         <v>82</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4E006C27-7711-0347-8118-C1D0384EB797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2198D1F9-40F1-204F-A389-0F6D945F7F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="2920" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1156,8 +1156,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,7 +1602,7 @@
         <v>79</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1610,7 +1610,7 @@
         <v>80</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2198D1F9-40F1-204F-A389-0F6D945F7F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A89FA291-03E4-FD43-B232-0E41416279DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="2920" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1610,7 +1610,7 @@
         <v>80</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A89FA291-03E4-FD43-B232-0E41416279DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A51F0C87-C8E8-FD45-96C1-AD16AA9AEE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9120" yWindow="2920" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="84">
   <si>
     <t>file_name</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>program-R-02.Rnw</t>
+  </si>
+  <si>
+    <t>experiment-02.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,15 +1282,12 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -1303,15 +1303,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1319,127 +1319,127 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -1447,31 +1447,31 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -1479,55 +1479,55 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -1543,47 +1543,47 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>10</v>
@@ -1591,23 +1591,23 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>20</v>
@@ -1615,15 +1615,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>9</v>
@@ -1631,15 +1631,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1663,23 +1663,23 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1711,23 +1711,23 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70">
         <v>12</v>
-      </c>
-      <c r="B70">
-        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1743,23 +1743,23 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -1767,15 +1767,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77">
         <v>12</v>
@@ -1783,46 +1783,54 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>20</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B82">
+  <conditionalFormatting sqref="B2:B83">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>9</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A51F0C87-C8E8-FD45-96C1-AD16AA9AEE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2BD6F29A-ED45-E64B-860E-FADBFE6DF40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9120" yWindow="2920" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1277,12 +1277,15 @@
         <v>76</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2BD6F29A-ED45-E64B-860E-FADBFE6DF40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9B1B446C-E418-5A49-B56B-3C036448CEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="2920" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="84">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
   <si>
     <t>file_name</t>
   </si>
@@ -251,12 +251,6 @@
     <t>desc_stat-11.Rnw</t>
   </si>
   <si>
-    <t>desc_stat-12.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-13.Rnw</t>
-  </si>
-  <si>
     <t>ttest-08.Rnw</t>
   </si>
   <si>
@@ -288,6 +282,9 @@
   </si>
   <si>
     <t>experiment-02.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-09.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,15 +1239,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1258,39 +1255,39 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1298,7 +1295,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -1306,15 +1303,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1322,127 +1319,127 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -1450,31 +1447,31 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -1482,55 +1479,55 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -1538,7 +1535,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -1546,47 +1543,47 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>10</v>
@@ -1594,23 +1591,23 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>20</v>
@@ -1618,15 +1615,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>9</v>
@@ -1634,15 +1631,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1650,7 +1647,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1658,7 +1655,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1666,23 +1663,23 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1690,7 +1687,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1698,7 +1695,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1706,7 +1703,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1714,23 +1711,23 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1738,7 +1735,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1746,23 +1743,23 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -1770,15 +1767,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B77">
         <v>12</v>
@@ -1786,10 +1783,10 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1797,43 +1794,35 @@
         <v>75</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B83">
+  <conditionalFormatting sqref="B2:B82">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>9</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9B1B446C-E418-5A49-B56B-3C036448CEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4012C2BB-5759-6C4C-8C88-29851E5FE591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1156,8 +1156,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,7 +1378,7 @@
         <v>71</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1434,7 +1434,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4012C2BB-5759-6C4C-8C88-29851E5FE591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0DE1F0B-7C6D-8544-9CE0-7ECA32E6E381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1156,8 +1156,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1362,7 +1362,7 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1434,7 +1434,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>72</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0DE1F0B-7C6D-8544-9CE0-7ECA32E6E381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{59B05A5E-47B4-C446-B4A5-1FD3BCDFEBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="82" uniqueCount="82">
   <si>
     <t>file_name</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>linreg-08.Rnw</t>
-  </si>
-  <si>
-    <t>linreg-09.Rnw</t>
   </si>
   <si>
     <t>desc_stat-01.Rnw</t>
@@ -1154,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,7 +1172,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1183,7 +1180,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1191,7 +1188,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -1199,7 +1196,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -1207,7 +1204,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -1215,7 +1212,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1223,7 +1220,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -1231,7 +1228,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1239,7 +1236,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1247,7 +1244,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1255,7 +1252,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1263,7 +1260,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -1271,7 +1268,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -1375,7 +1372,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -1447,7 +1444,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -1490,7 +1487,7 @@
         <v>48</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1522,7 +1519,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1530,7 +1527,7 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1538,7 +1535,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1546,7 +1543,7 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1559,23 +1556,23 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -1583,10 +1580,10 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1594,7 +1591,7 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1610,7 +1607,7 @@
         <v>78</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1623,15 +1620,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -1639,7 +1636,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1647,7 +1644,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1655,23 +1652,23 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1679,7 +1676,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1687,7 +1684,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1695,7 +1692,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1703,23 +1700,23 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -1727,7 +1724,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1735,23 +1732,23 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B74">
         <v>10</v>
@@ -1759,15 +1756,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B76">
         <v>12</v>
@@ -1775,54 +1772,46 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B81">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>20</v>
-      </c>
-      <c r="B82">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B82">
+  <conditionalFormatting sqref="B2:B81">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>9</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{59B05A5E-47B4-C446-B4A5-1FD3BCDFEBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{19DFB779-3C9F-9A48-95D0-D9A095BDB627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,8 +1153,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1655,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{19DFB779-3C9F-9A48-95D0-D9A095BDB627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1B450A6C-EB4A-4F4D-B469-7CF92C648B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,8 +1153,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1703,7 +1703,7 @@
         <v>11</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1B450A6C-EB4A-4F4D-B469-7CF92C648B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D5CB45C-EB19-EE4A-9E60-87496E52627F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="82" uniqueCount="82">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
   <si>
     <t>file_name</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>desc_stat-09.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-06.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1455,7 +1458,7 @@
         <v>44</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1479,7 +1482,7 @@
         <v>47</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1492,47 +1495,47 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>12</v>
@@ -1540,23 +1543,23 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>12</v>
@@ -1564,15 +1567,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -1580,23 +1583,23 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55">
         <v>20</v>
@@ -1604,15 +1607,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57">
         <v>9</v>
@@ -1620,15 +1623,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -1636,7 +1639,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1644,7 +1647,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1652,7 +1655,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1660,7 +1663,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1668,7 +1671,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1676,7 +1679,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1684,7 +1687,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1692,7 +1695,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1708,7 +1711,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -1716,7 +1719,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -1724,7 +1727,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1732,23 +1735,23 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74">
         <v>10</v>
@@ -1756,15 +1759,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B76">
         <v>12</v>
@@ -1772,46 +1775,54 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>20</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B81">
+  <conditionalFormatting sqref="B2:B82">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>9</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D5CB45C-EB19-EE4A-9E60-87496E52627F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EE555566-78CC-C648-AC12-EDC59FF53705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17740" yWindow="5420" windowWidth="18640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12220" yWindow="5420" windowWidth="24160" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="84">
   <si>
     <t>file_name</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>chisquare-06.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-07.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1490,7 +1493,7 @@
         <v>48</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1503,47 +1506,47 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>12</v>
@@ -1551,23 +1554,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -1575,15 +1578,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>10</v>
@@ -1591,23 +1594,23 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>20</v>
@@ -1615,15 +1618,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>9</v>
@@ -1631,15 +1634,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1647,7 +1650,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1655,7 +1658,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1663,7 +1666,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1687,7 +1690,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1695,7 +1698,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1703,7 +1706,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1711,7 +1714,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -1719,7 +1722,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1735,7 +1738,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1743,23 +1746,23 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -1767,15 +1770,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77">
         <v>12</v>
@@ -1783,46 +1786,54 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>20</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B82">
+  <conditionalFormatting sqref="B2:B83">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>9</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EE555566-78CC-C648-AC12-EDC59FF53705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{52D5A984-4657-5F47-B5A1-03DEF78DAA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12220" yWindow="5420" windowWidth="24160" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="84">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="82" uniqueCount="82">
   <si>
     <t>file_name</t>
   </si>
@@ -240,12 +240,6 @@
   </si>
   <si>
     <t>desc_stat-08.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-10.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-11.Rnw</t>
   </si>
   <si>
     <t>ttest-08.Rnw</t>
@@ -1157,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,7 +1236,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1250,39 +1244,39 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -1290,39 +1284,39 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>12</v>
@@ -1330,39 +1324,39 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -1370,31 +1364,31 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -1402,7 +1396,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -1410,15 +1404,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>12</v>
@@ -1426,39 +1420,39 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -1466,7 +1460,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -1474,7 +1468,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -1482,79 +1476,79 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -1562,42 +1556,42 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1605,7 +1599,7 @@
         <v>75</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1613,7 +1607,7 @@
         <v>76</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1621,28 +1615,28 @@
         <v>77</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1650,7 +1644,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1658,7 +1652,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1666,7 +1660,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1674,7 +1668,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1682,7 +1676,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1690,7 +1684,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1698,7 +1692,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1706,7 +1700,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1714,7 +1708,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -1722,7 +1716,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -1730,7 +1724,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1738,15 +1732,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -1754,39 +1748,39 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B78">
         <v>12</v>
@@ -1794,46 +1788,30 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B83">
+  <conditionalFormatting sqref="B2:B81">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>9</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{52D5A984-4657-5F47-B5A1-03DEF78DAA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4475BF4A-12B2-3E4E-B2AB-C248BD6AA52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12220" yWindow="5420" windowWidth="24160" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,8 +1153,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1311,7 +1311,7 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4475BF4A-12B2-3E4E-B2AB-C248BD6AA52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{46D3213B-D38B-6D4D-93EC-DF0ECCB1E16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12220" yWindow="5420" windowWidth="24160" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="82" uniqueCount="82">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
   <si>
     <t>file_name</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>chisquare-07.Rnw</t>
+  </si>
+  <si>
+    <t>hausarbeit-01.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1810,8 +1813,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B81">
+  <conditionalFormatting sqref="B2:B82">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>9</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{46D3213B-D38B-6D4D-93EC-DF0ECCB1E16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F846274B-C519-4616-86BB-FA80885C5440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12220" yWindow="5420" windowWidth="24160" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1156,16 +1156,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1405,15 +1405,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
       <c r="B31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>82</v>
       </c>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F846274B-C519-4616-86BB-FA80885C5440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3EBC19D5-96AB-4977-8BA4-BA62A1F85703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1156,16 +1156,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1373,31 +1373,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
       <c r="B27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
       <c r="B29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3EBC19D5-96AB-4977-8BA4-BA62A1F85703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{52834CA7-EE40-1647-9DAE-061F954567D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="1960" windowWidth="21600" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1156,16 +1156,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1349,15 +1349,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>82</v>
       </c>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{52834CA7-EE40-1647-9DAE-061F954567D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D9CF9E1-17E2-2B49-AE6F-62AAB6B19282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1960" windowWidth="21600" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="1960" windowWidth="21600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="83" uniqueCount="83">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="81" uniqueCount="81">
   <si>
     <t>file_name</t>
   </si>
@@ -167,124 +167,118 @@
     <t>anova-07.Rnw</t>
   </si>
   <si>
+    <t>chisquare-01.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-02.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-03.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-04.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-05.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-01.Rnw</t>
+  </si>
+  <si>
+    <t>multcomp-01.Rnw</t>
+  </si>
+  <si>
+    <t>multcomp-03.Rnw</t>
+  </si>
+  <si>
+    <t>multcomp-02.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-02.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-03.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-04.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-05.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-06.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-07.Rnw</t>
+  </si>
+  <si>
+    <t>linreg-08.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-01.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-02.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-03.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-04.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-05.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-06.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-07.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-08.Rnw</t>
+  </si>
+  <si>
+    <t>ttest-08.Rnw</t>
+  </si>
+  <si>
+    <t>math-20.Rnw</t>
+  </si>
+  <si>
+    <t>experiment-01.Rnw</t>
+  </si>
+  <si>
+    <t>math-21.Rnw</t>
+  </si>
+  <si>
+    <t>forsch-lern-01.Rnw</t>
+  </si>
+  <si>
+    <t>forsch-lern-02.Rnw</t>
+  </si>
+  <si>
+    <t>program-R-01.Rnw</t>
+  </si>
+  <si>
+    <t>program-R-02.Rnw</t>
+  </si>
+  <si>
+    <t>experiment-02.Rnw</t>
+  </si>
+  <si>
+    <t>desc_stat-09.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-06.Rnw</t>
+  </si>
+  <si>
+    <t>chisquare-07.Rnw</t>
+  </si>
+  <si>
+    <t>hausarbeit-01.Rnw</t>
+  </si>
+  <si>
     <t>anova-08.Rnw</t>
-  </si>
-  <si>
-    <t>chisquare-01.Rnw</t>
-  </si>
-  <si>
-    <t>chisquare-02.Rnw</t>
-  </si>
-  <si>
-    <t>chisquare-03.Rnw</t>
-  </si>
-  <si>
-    <t>chisquare-04.Rnw</t>
-  </si>
-  <si>
-    <t>chisquare-05.Rnw</t>
-  </si>
-  <si>
-    <t>linreg-01.Rnw</t>
-  </si>
-  <si>
-    <t>multcomp-01.Rnw</t>
-  </si>
-  <si>
-    <t>multcomp-03.Rnw</t>
-  </si>
-  <si>
-    <t>multcomp-02.Rnw</t>
-  </si>
-  <si>
-    <t>linreg-02.Rnw</t>
-  </si>
-  <si>
-    <t>linreg-03.Rnw</t>
-  </si>
-  <si>
-    <t>linreg-04.Rnw</t>
-  </si>
-  <si>
-    <t>linreg-05.Rnw</t>
-  </si>
-  <si>
-    <t>linreg-06.Rnw</t>
-  </si>
-  <si>
-    <t>linreg-07.Rnw</t>
-  </si>
-  <si>
-    <t>linreg-08.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-01.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-02.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-03.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-04.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-05.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-06.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-07.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-08.Rnw</t>
-  </si>
-  <si>
-    <t>ttest-08.Rnw</t>
-  </si>
-  <si>
-    <t>anova-09.Rnw</t>
-  </si>
-  <si>
-    <t>math-20.Rnw</t>
-  </si>
-  <si>
-    <t>experiment-01.Rnw</t>
-  </si>
-  <si>
-    <t>math-21.Rnw</t>
-  </si>
-  <si>
-    <t>multcomp-04.Rnw</t>
-  </si>
-  <si>
-    <t>forsch-lern-01.Rnw</t>
-  </si>
-  <si>
-    <t>forsch-lern-02.Rnw</t>
-  </si>
-  <si>
-    <t>program-R-01.Rnw</t>
-  </si>
-  <si>
-    <t>program-R-02.Rnw</t>
-  </si>
-  <si>
-    <t>experiment-02.Rnw</t>
-  </si>
-  <si>
-    <t>desc_stat-09.Rnw</t>
-  </si>
-  <si>
-    <t>chisquare-06.Rnw</t>
-  </si>
-  <si>
-    <t>chisquare-07.Rnw</t>
-  </si>
-  <si>
-    <t>hausarbeit-01.Rnw</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,7 +1169,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1183,7 +1177,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1191,7 +1185,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -1199,7 +1193,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -1207,7 +1201,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -1215,7 +1209,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1223,7 +1217,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -1231,7 +1225,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1239,7 +1233,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1247,7 +1241,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -1255,7 +1249,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -1359,7 +1353,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -1423,7 +1417,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>11</v>
@@ -1431,10 +1425,10 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1471,15 +1465,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>11</v>
@@ -1487,18 +1481,18 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1506,7 +1500,7 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1514,7 +1508,7 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1522,7 +1516,7 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1538,7 +1532,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1546,12 +1540,12 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -1559,15 +1553,15 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -1575,55 +1569,55 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -1631,7 +1625,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -1639,7 +1633,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1647,7 +1641,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1655,7 +1649,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1663,7 +1657,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1671,7 +1665,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1679,7 +1673,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1687,7 +1681,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1695,7 +1689,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1703,7 +1697,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1711,7 +1705,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -1719,15 +1713,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1735,39 +1729,39 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B76">
         <v>12</v>
@@ -1775,23 +1769,23 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -1799,30 +1793,14 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B82">
+  <conditionalFormatting sqref="B2:B80">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>9</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D9CF9E1-17E2-2B49-AE6F-62AAB6B19282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{542201EB-3069-E14C-A336-8A45B10F3E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="1960" windowWidth="21600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="81" uniqueCount="81">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="78" uniqueCount="78">
   <si>
     <t>file_name</t>
   </si>
@@ -179,9 +179,6 @@
     <t>chisquare-04.Rnw</t>
   </si>
   <si>
-    <t>chisquare-05.Rnw</t>
-  </si>
-  <si>
     <t>linreg-01.Rnw</t>
   </si>
   <si>
@@ -267,12 +264,6 @@
   </si>
   <si>
     <t>desc_stat-09.Rnw</t>
-  </si>
-  <si>
-    <t>chisquare-06.Rnw</t>
-  </si>
-  <si>
-    <t>chisquare-07.Rnw</t>
   </si>
   <si>
     <t>hausarbeit-01.Rnw</t>
@@ -1148,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,15 +1160,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1185,7 +1176,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -1193,7 +1184,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -1201,7 +1192,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -1209,7 +1200,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1217,7 +1208,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -1225,7 +1216,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1233,7 +1224,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1241,7 +1232,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -1249,7 +1240,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -1353,7 +1344,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -1417,7 +1408,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B33">
         <v>11</v>
@@ -1444,7 +1435,7 @@
         <v>45</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1465,15 +1456,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>11</v>
@@ -1481,7 +1472,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -1489,7 +1480,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>12</v>
@@ -1497,23 +1488,23 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>12</v>
@@ -1521,7 +1512,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>12</v>
@@ -1529,79 +1520,79 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B52">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -1609,7 +1600,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B57">
         <v>10</v>
@@ -1617,7 +1608,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -1625,7 +1616,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -1633,7 +1624,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1641,7 +1632,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1649,7 +1640,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1657,7 +1648,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1665,7 +1656,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1673,7 +1664,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1681,7 +1672,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1689,15 +1680,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
         <v>12</v>
-      </c>
-      <c r="B67">
-        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -1705,7 +1696,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -1713,7 +1704,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -1721,15 +1712,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1737,7 +1728,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>12</v>
@@ -1745,62 +1736,38 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B80">
+  <conditionalFormatting sqref="B2:B77">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>9</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{542201EB-3069-E14C-A336-8A45B10F3E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FE77EE87-0179-EA49-9059-573A80DF3877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="1960" windowWidth="21600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1195,7 +1195,7 @@
         <v>62</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,7 @@
         <v>63</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1211,7 +1211,7 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1219,7 +1219,7 @@
         <v>65</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FE77EE87-0179-EA49-9059-573A80DF3877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1C253696-DF61-4066-B757-ED4EAFDE9F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1960" windowWidth="21600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1044" windowWidth="21780" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="78" uniqueCount="78">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="77" uniqueCount="77">
   <si>
     <t>file_name</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>chisquare-03.Rnw</t>
-  </si>
-  <si>
-    <t>chisquare-04.Rnw</t>
   </si>
   <si>
     <t>linreg-01.Rnw</t>
@@ -1139,18 +1136,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1158,95 +1155,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>63</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>64</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1254,7 +1251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1262,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1294,7 +1291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1302,7 +1299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1310,7 +1307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1318,7 +1315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1326,7 +1323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1334,7 +1331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1342,15 +1339,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1358,7 +1355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1366,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1374,7 +1371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1382,7 +1379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1390,7 +1387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1406,15 +1403,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1422,7 +1419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1430,7 +1427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1438,7 +1435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1446,39 +1443,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -1486,55 +1483,55 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B46">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
       <c r="B47">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -1542,15 +1539,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>71</v>
       </c>
       <c r="B50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -1558,216 +1555,208 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="B52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
       <c r="B60">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B61">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B62">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B63">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66">
         <v>12</v>
       </c>
-      <c r="B64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B70">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B73">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B77">
+  <conditionalFormatting sqref="B2:B76">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>9</formula>
     </cfRule>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1C253696-DF61-4066-B757-ED4EAFDE9F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A2B70461-56CE-014A-BC0D-61BEC52BD71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1044" windowWidth="21780" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="21780" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_points" sheetId="1" r:id="rId1"/>
@@ -1138,16 +1138,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1403,15 +1403,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>76</v>
       </c>
       <c r="B33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>

--- a/questions_points.xlsx
+++ b/questions_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A2B70461-56CE-014A-BC0D-61BEC52BD71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AEADD61A-11E5-F845-A213-65497244DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="21780" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1288,7 +1288,7 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
